--- a/Report.xlsx
+++ b/Report.xlsx
@@ -58,10 +58,10 @@
     <t>HEMATOLOGY</t>
   </si>
   <si>
-    <t>Missing in right</t>
-  </si>
-  <si>
-    <t>Missing in left</t>
+    <t>Missing in New</t>
+  </si>
+  <si>
+    <t>Missing in Old</t>
   </si>
   <si>
     <t>data changed</t>
